--- a/API-Auto/testFile/case/业务员APP.xlsx
+++ b/API-Auto/testFile/case/业务员APP.xlsx
@@ -4,19 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="app登录" sheetId="1" r:id="rId1"/>
     <sheet name="app登出 " sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="修改密码" sheetId="3" r:id="rId3"/>
+    <sheet name="查询客户" sheetId="4" r:id="rId4"/>
+    <sheet name="查询商品组" sheetId="5" r:id="rId5"/>
+    <sheet name="查询商品列表" sheetId="6" r:id="rId6"/>
+    <sheet name="商品详情" sheetId="7" r:id="rId7"/>
+    <sheet name="商品说明书" sheetId="8" r:id="rId8"/>
+    <sheet name="客户购物车列表" sheetId="9" r:id="rId9"/>
+    <sheet name="添加购物车" sheetId="10" r:id="rId10"/>
+    <sheet name="更新购物车数量" sheetId="11" r:id="rId11"/>
+    <sheet name="删除购物车" sheetId="12" r:id="rId12"/>
+    <sheet name="商品关键字搜索" sheetId="13" r:id="rId13"/>
+    <sheet name="商品搜索下拉提示" sheetId="14" r:id="rId14"/>
+    <sheet name="业务员购物车" sheetId="15" r:id="rId15"/>
+    <sheet name="结算" sheetId="16" r:id="rId16"/>
+    <sheet name="查询当前业务员可以查询的业务员组" sheetId="17" r:id="rId17"/>
+    <sheet name="根据业务员组查询可见的业务员" sheetId="18" r:id="rId18"/>
+    <sheet name="提交订单" sheetId="19" r:id="rId19"/>
+    <sheet name="订单详情" sheetId="20" r:id="rId20"/>
+    <sheet name="条件查询订单" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="258">
   <si>
     <t>case_name</t>
   </si>
@@ -92,6 +110,9 @@
     <t>id正确</t>
   </si>
   <si>
+    <t>/SalesmanLogout/logout/</t>
+  </si>
+  <si>
     <t>{"id":"123456"}</t>
   </si>
   <si>
@@ -108,6 +129,877 @@
   </si>
   <si>
     <t>{"id":""}</t>
+  </si>
+  <si>
+    <t>oldPassword正确</t>
+  </si>
+  <si>
+    <t>/SalesmanLogout/changePwd</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"Ly123456",
+ "newPassword":"Ly12345678",
+ "repNewPassword":"Ly12345678"}</t>
+  </si>
+  <si>
+    <t>oldPassword错误</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"xxxx",
+ "newPassword":"Ly12345678",
+ "repNewPassword":"Ly12345678"}</t>
+  </si>
+  <si>
+    <t>oldPassword为空</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"",
+ "newPassword":"Ly12345678",
+ "repNewPassword":"Ly12345678"}</t>
+  </si>
+  <si>
+    <t>newPassword正确</t>
+  </si>
+  <si>
+    <t>newPassword错误</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"Ly123456",
+ "newPassword":"xxxx",
+ "repNewPassword":"Ly12345678"}</t>
+  </si>
+  <si>
+    <t>newPassword为空</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"Ly123456",
+ "newPassword":"",
+ "repNewPassword":"Ly12345678"}</t>
+  </si>
+  <si>
+    <t>repNewPassword正确</t>
+  </si>
+  <si>
+    <t>repNewPassword错误</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"Ly123456",
+ "newPassword":"Ly12345678",
+ "repNewPassword":"xxxx"}</t>
+  </si>
+  <si>
+    <t>repNewPassword为空</t>
+  </si>
+  <si>
+    <t>{"oldPassword":"Ly123456",
+ "newPassword":"Ly12345678",
+ "repNewPassword":""}</t>
+  </si>
+  <si>
+    <t>name正确</t>
+  </si>
+  <si>
+    <t>/client/find</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":1,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>name错误</t>
+  </si>
+  <si>
+    <t>{"name":"xxxx",
+ "province":1,
+ "city":1,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>name为空</t>
+  </si>
+  <si>
+    <t>{"name":"",
+ "province":1,
+ "city":1,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>province正确</t>
+  </si>
+  <si>
+    <t>province错误</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":10,
+ "city":1,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>province为空</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":,
+ "city":1,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>city正确</t>
+  </si>
+  <si>
+    <t>city错误</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":10,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>city为空</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":,
+ "district":1,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>district正确</t>
+  </si>
+  <si>
+    <t>district错误</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":1,
+ "district":10,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>district为空</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":1,
+ "district":,
+ "village":1}</t>
+  </si>
+  <si>
+    <t>village正确</t>
+  </si>
+  <si>
+    <t>village错误</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":1,
+ "district":1,
+ "village":10}</t>
+  </si>
+  <si>
+    <t>village为空</t>
+  </si>
+  <si>
+    <t>{"name":"Ly123456",
+ "province":1,
+ "city":1,
+ "district":1,
+ "village":}</t>
+  </si>
+  <si>
+    <t>url正确</t>
+  </si>
+  <si>
+    <t>/goods/goodsGroup</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>url错误</t>
+  </si>
+  <si>
+    <t>/goods/goodsGroup111</t>
+  </si>
+  <si>
+    <t>url为空</t>
+  </si>
+  <si>
+    <t>/goods/goodsList</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":xxx,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>pageNumber正确</t>
+  </si>
+  <si>
+    <t>pageNumber错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":xxxx,
+ "pageSize":1,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>pageNumber为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":,
+ "pageSize":1,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>pageSize正确</t>
+  </si>
+  <si>
+    <t>pageSize错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":xxx,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>pageSize为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":,
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>sortFieldCode为默认排序</t>
+  </si>
+  <si>
+    <t>sortFieldCode为销量</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":1,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>sortFieldCode为价格</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":2,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>sortFieldCode错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":xxx,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>sortFieldCode为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>sortOrderCode为倒序</t>
+  </si>
+  <si>
+    <t>sortOrderCode为升序</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":1,
+ "sortOrderCode":1}</t>
+  </si>
+  <si>
+    <t>sortOrderCode错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":1,
+ "sortOrderCode":xxxx}</t>
+  </si>
+  <si>
+    <t>sortOrderCode为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":1,
+ "pageNumber":1,
+ "pageSize":1,
+ "sortFieldCode":1,
+ "sortOrderCode":}</t>
+  </si>
+  <si>
+    <t>/goods/detail/{id}</t>
+  </si>
+  <si>
+    <t>/goods/detail/{id}1111</t>
+  </si>
+  <si>
+    <t>/goods/instruction/{id}</t>
+  </si>
+  <si>
+    <t>/goods/instruction/{id}1111</t>
+  </si>
+  <si>
+    <t>/cart/clientList</t>
+  </si>
+  <si>
+    <t>/cart/clientList1111</t>
+  </si>
+  <si>
+    <t>goodsId正确</t>
+  </si>
+  <si>
+    <t>/cart/add</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"1",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>goodsId错误</t>
+  </si>
+  <si>
+    <t>{"goodsId":"xxx",
+ "quantity":"1",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>goodsId为空</t>
+  </si>
+  <si>
+    <t>{"goodsId":"",
+ "quantity":"1",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>quantity正确</t>
+  </si>
+  <si>
+    <t>quantity错误</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"xxx",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>quantity为空</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>addPrice正确</t>
+  </si>
+  <si>
+    <t>addPrice错误</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"1",
+ "addPrice":"xxx"}</t>
+  </si>
+  <si>
+    <t>addPrice为空</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"1",
+ "addPrice":""}</t>
+  </si>
+  <si>
+    <t>/cart/update</t>
+  </si>
+  <si>
+    <t>ids正确</t>
+  </si>
+  <si>
+    <t>/cart/delete</t>
+  </si>
+  <si>
+    <t>{"ids":"1"}</t>
+  </si>
+  <si>
+    <t>ids错误</t>
+  </si>
+  <si>
+    <t>{"ids":"xxxx"}</t>
+  </si>
+  <si>
+    <t>ids为空</t>
+  </si>
+  <si>
+    <t>{"ids":""}</t>
+  </si>
+  <si>
+    <t>keywords正确</t>
+  </si>
+  <si>
+    <t>/goods/search</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>keywords错误</t>
+  </si>
+  <si>
+    <t>{"keywords":"xxx",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>keywords为空</t>
+  </si>
+  <si>
+    <t>{"keywords":"",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"xxx",
+ "pageSize":"1",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"",
+ "pageSize":"1",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"xxx",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>goodsGroupIds正确</t>
+  </si>
+  <si>
+    <t>goodsGroupIds错误</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":"xxx"}</t>
+  </si>
+  <si>
+    <t>goodsGroupIds为空</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":""}</t>
+  </si>
+  <si>
+    <t>/goods/search/suggest</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"xxx",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"",
+ "goodsGroupIds":"1"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "goodsGroupIds":"xxx"}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "goodsGroupIds":""}</t>
+  </si>
+  <si>
+    <t>/cart/salesmanList</t>
+  </si>
+  <si>
+    <t>/cart/salesmanList1111</t>
+  </si>
+  <si>
+    <t>_root_正确</t>
+  </si>
+  <si>
+    <t>/settlement/settle</t>
+  </si>
+  <si>
+    <t>{"_root_":"1"}</t>
+  </si>
+  <si>
+    <t>_root_错误</t>
+  </si>
+  <si>
+    <t>{"_root_":"xxx"}</t>
+  </si>
+  <si>
+    <t>_root_为空</t>
+  </si>
+  <si>
+    <t>{"_root_":""}</t>
+  </si>
+  <si>
+    <t>/order/findSManGroup</t>
+  </si>
+  <si>
+    <t>/order/findSManGroup1111</t>
+  </si>
+  <si>
+    <t>/order/findSMan/</t>
+  </si>
+  <si>
+    <t>userId正确</t>
+  </si>
+  <si>
+    <t>/order/submit</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":1,
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>userId错误</t>
+  </si>
+  <si>
+    <t>{"userId":xxx,
+ "goodsIds":1,
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>userId为空</t>
+  </si>
+  <si>
+    <t>{"userId":,
+ "goodsIds":1,
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>goodsIds正确</t>
+  </si>
+  <si>
+    <t>goodsIds错误</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":xxx,
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>goodsIds为空</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":,
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>remarks正确</t>
+  </si>
+  <si>
+    <t>remarks错误</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":1,
+ "remarks":"xxx",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>remarks为空</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":1,
+ "remarks":"",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>settleType正确</t>
+  </si>
+  <si>
+    <t>settleType错误</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":1,
+ "remarks":"1",
+ "settleType":xxx}</t>
+  </si>
+  <si>
+    <t>settleType为空</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":1,
+ "remarks":"1",
+ "settleType":}</t>
+  </si>
+  <si>
+    <t>/order/detail/{number}</t>
+  </si>
+  <si>
+    <t>/order/detail/{number}111</t>
+  </si>
+  <si>
+    <t>orderStatus为待开票</t>
+  </si>
+  <si>
+    <t>/order/find</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"0"}</t>
+  </si>
+  <si>
+    <t>orderStatus为已开票</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"1"}</t>
+  </si>
+  <si>
+    <t>orderStatus为已拣货</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"2"}</t>
+  </si>
+  <si>
+    <t>orderStatus为已出库</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"3"}</t>
+  </si>
+  <si>
+    <t>orderStatus为已发货</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"4"}</t>
+  </si>
+  <si>
+    <t>orderStatus为已完成</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"5"}</t>
+  </si>
+  <si>
+    <t>orderStatus为错误</t>
+  </si>
+  <si>
+    <t>{"orderStatus":"10"}</t>
+  </si>
+  <si>
+    <t>orderStatus为空</t>
+  </si>
+  <si>
+    <t>{"orderStatus":""}</t>
+  </si>
+  <si>
+    <t>payStatus为未支付</t>
+  </si>
+  <si>
+    <t>{"payStatus":"0"}</t>
+  </si>
+  <si>
+    <t>payStatus为已支付</t>
+  </si>
+  <si>
+    <t>{"payStatus":"1"}</t>
+  </si>
+  <si>
+    <t>payStatus为错误</t>
+  </si>
+  <si>
+    <t>{"payStatus":"10"}</t>
+  </si>
+  <si>
+    <t>payStatus为空</t>
+  </si>
+  <si>
+    <t>{"payStatus":""}</t>
+  </si>
+  <si>
+    <t>salesmanId为正确</t>
+  </si>
+  <si>
+    <t>{"salesmanId":"1"}</t>
+  </si>
+  <si>
+    <t>salesmanId为错误</t>
+  </si>
+  <si>
+    <t>{"salesmanId":"10"}</t>
+  </si>
+  <si>
+    <t>salesmanId为空</t>
+  </si>
+  <si>
+    <t>{"salesmanId":""}</t>
+  </si>
+  <si>
+    <t>startTime为正确</t>
+  </si>
+  <si>
+    <t>{"startTime":"1"}</t>
+  </si>
+  <si>
+    <t>startTime为错误</t>
+  </si>
+  <si>
+    <t>{"startTime":"10"}</t>
+  </si>
+  <si>
+    <t>startTime为空</t>
+  </si>
+  <si>
+    <t>{"startTime":""}</t>
+  </si>
+  <si>
+    <t>endTime为正确</t>
+  </si>
+  <si>
+    <t>{"endTime":"1"}</t>
+  </si>
+  <si>
+    <t>endTime为错误</t>
+  </si>
+  <si>
+    <t>{"endTime":"10"}</t>
+  </si>
+  <si>
+    <t>endTime为空</t>
+  </si>
+  <si>
+    <t>{"endTime":""}</t>
+  </si>
+  <si>
+    <t>pageNumber为正确</t>
+  </si>
+  <si>
+    <t>{"pageNumber":"1"}</t>
+  </si>
+  <si>
+    <t>pageNumber为错误</t>
+  </si>
+  <si>
+    <t>{"pageNumber":"10"}</t>
+  </si>
+  <si>
+    <t>{"pageNumber":""}</t>
+  </si>
+  <si>
+    <t>pageSize为正确</t>
+  </si>
+  <si>
+    <t>{"pageSize":"1"}</t>
+  </si>
+  <si>
+    <t>pageSize为错误</t>
+  </si>
+  <si>
+    <t>{"pageSize":"10"}</t>
+  </si>
+  <si>
+    <t>{"pageSize":""}</t>
+  </si>
+  <si>
+    <t>goodsGroupId为正确</t>
+  </si>
+  <si>
+    <t>{"goodsGroupId":1}</t>
+  </si>
+  <si>
+    <t>goodsGroupId为错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupId":10}</t>
+  </si>
+  <si>
+    <t>goodsGroupId为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupId":}</t>
   </si>
 </sst>
 </file>
@@ -143,16 +1035,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,48 +1067,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,11 +1081,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,16 +1126,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,10 +1157,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,7 +1174,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +1300,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,121 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,19 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,11 +1368,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,7 +1417,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +1425,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +1442,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +1473,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,19 +1485,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,109 +1509,109 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,13 +2151,1767 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="51" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="55" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="52" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="57" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="58" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="54" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="75" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="54" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="54" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="27" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="58" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="61" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="68" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="54" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="54" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="54" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="54" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="54" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1313,42 +3959,42 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1357,13 +4003,13 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1375,19 +4021,2214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="66.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="72" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="72" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="79" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="51.625" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="93" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="67.5" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="67.5" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="67.5" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/API-Auto/testFile/case/业务员APP.xlsx
+++ b/API-Auto/testFile/case/业务员APP.xlsx
@@ -1008,8 +1008,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1023,6 +1023,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,13 +1052,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1058,19 +1073,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,8 +1095,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,56 +1117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,6 +1132,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1174,13 +1174,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,13 +1210,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,25 +1240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,19 +1270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,43 +1294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,19 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,32 +1368,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,7 +1402,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,7 +1435,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,30 +1465,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1473,10 +1473,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1485,133 +1485,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4134,7 +4134,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/API-Auto/testFile/case/业务员APP.xlsx
+++ b/API-Auto/testFile/case/业务员APP.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="14" activeTab="20"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="app登录" sheetId="1" r:id="rId1"/>
-    <sheet name="app登出 " sheetId="2" r:id="rId2"/>
-    <sheet name="修改密码" sheetId="3" r:id="rId3"/>
-    <sheet name="查询客户" sheetId="4" r:id="rId4"/>
+    <sheet name="1app登录" sheetId="1" r:id="rId1"/>
+    <sheet name="2app登出 " sheetId="2" r:id="rId2"/>
+    <sheet name="3修改密码" sheetId="3" r:id="rId3"/>
+    <sheet name="4查询客户" sheetId="4" r:id="rId4"/>
     <sheet name="查询商品组" sheetId="5" r:id="rId5"/>
     <sheet name="查询商品列表" sheetId="6" r:id="rId6"/>
     <sheet name="商品详情" sheetId="7" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="269">
   <si>
     <t>case_name</t>
   </si>
@@ -69,11 +69,18 @@
     <t>/SalesmanLogin/login</t>
   </si>
   <si>
-    <t>{"username":"谭首龙",
+    <t>{"username":"测试1234",
  "password":"123456"}</t>
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": "d64152e1-aee1-11ea-8ad6-0a0027000008",
+    "message": "操作成功"
+}</t>
   </si>
   <si>
     <t>username错误</t>
@@ -83,6 +90,13 @@
  "password":"123456"}</t>
   </si>
   <si>
+    <t>{
+    "code": "200900",
+    "content": null,
+    "message": "业务员账号或密码错误"
+}</t>
+  </si>
+  <si>
     <t>username为空</t>
   </si>
   <si>
@@ -90,45 +104,77 @@
  "password":"123456"}</t>
   </si>
   <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "用户名不为空"
+}</t>
+  </si>
+  <si>
     <t>password正确</t>
   </si>
   <si>
     <t>password错误</t>
   </si>
   <si>
-    <t>{"username":"谭首龙",
- "password":"xxxx"}</t>
+    <t>{"username":"测试1234",
+ "password":"xxx"}</t>
   </si>
   <si>
     <t>password为空</t>
   </si>
   <si>
-    <t>{"username":"谭首龙",
+    <t>{"username":"测试1234",
  "password":""}</t>
   </si>
   <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "密码不能为空"
+}</t>
+  </si>
+  <si>
     <t>id正确</t>
   </si>
   <si>
+    <t>/SalesmanLogout/logout/593b6a75-aee6-11ea-8ad6-0a0027000008</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": true,
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>id错误</t>
+  </si>
+  <si>
+    <t>/SalesmanLogout/logout/111</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/SalesmanLogout/logout/111"
+}</t>
+  </si>
+  <si>
+    <t>id为空</t>
+  </si>
+  <si>
     <t>/SalesmanLogout/logout/</t>
   </si>
   <si>
-    <t>{"id":"123456"}</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>id错误</t>
-  </si>
-  <si>
-    <t>{"id":"xxx"}</t>
-  </si>
-  <si>
-    <t>id为空</t>
-  </si>
-  <si>
-    <t>{"id":""}</t>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误"
+}</t>
   </si>
   <si>
     <t>oldPassword正确</t>
@@ -148,6 +194,13 @@
     <t>{"oldPassword":"xxxx",
  "newPassword":"Ly12345678",
  "repNewPassword":"Ly12345678"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "200915",
+    "content": null,
+    "message": "密码不正确,请重新输入！"
+}</t>
   </si>
   <si>
     <t>oldPassword为空</t>
@@ -209,6 +262,13 @@
  "village":1}</t>
   </si>
   <si>
+    <t>{
+    "code": "000000",
+    "content": [],
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
     <t>name错误</t>
   </si>
   <si>
@@ -724,6 +784,15 @@
   </si>
   <si>
     <t>/order/findSMan/</t>
+  </si>
+  <si>
+    <t>{"id":"123456"}</t>
+  </si>
+  <si>
+    <t>{"id":"xxx"}</t>
+  </si>
+  <si>
+    <t>{"id":""}</t>
   </si>
   <si>
     <t>userId正确</t>
@@ -1007,8 +1076,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1022,6 +1091,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1030,21 +1121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,20 +1143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1088,8 +1151,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,8 +1175,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,38 +1204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,7 +1212,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1174,13 +1243,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,109 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1321,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,37 +1351,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,6 +1434,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1379,39 +1457,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,7 +1480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,6 +1510,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1473,10 +1542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1485,19 +1554,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1506,116 +1575,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,6 +1696,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1980,7 +2052,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1988,8 +2060,9 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2018,7 +2091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -2037,62 +2110,68 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="27" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="27" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="27" spans="1:6">
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -2103,45 +2182,54 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="27" spans="1:6">
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="27" spans="1:6">
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2284,7 @@
     </row>
     <row r="2" ht="51" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2205,10 +2293,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -2218,7 +2306,7 @@
     </row>
     <row r="3" ht="40.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2227,10 +2315,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -2240,7 +2328,7 @@
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2249,10 +2337,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -2262,7 +2350,7 @@
     </row>
     <row r="5" ht="52" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -2271,10 +2359,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2284,7 +2372,7 @@
     </row>
     <row r="6" ht="40.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2293,10 +2381,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -2306,7 +2394,7 @@
     </row>
     <row r="7" ht="40.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2315,10 +2403,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -2328,7 +2416,7 @@
     </row>
     <row r="8" ht="40.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -2337,10 +2425,10 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -2349,7 +2437,7 @@
     </row>
     <row r="9" ht="40.5" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2358,10 +2446,10 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -2370,7 +2458,7 @@
     </row>
     <row r="10" ht="40.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2379,10 +2467,10 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -2440,7 +2528,7 @@
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2449,10 +2537,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -2462,7 +2550,7 @@
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2471,10 +2559,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -2484,7 +2572,7 @@
     </row>
     <row r="4" ht="40.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2493,10 +2581,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -2506,7 +2594,7 @@
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -2515,10 +2603,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2528,7 +2616,7 @@
     </row>
     <row r="6" ht="40.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2537,10 +2625,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -2550,7 +2638,7 @@
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2559,10 +2647,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -2621,7 +2709,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2630,10 +2718,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -2643,7 +2731,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2652,10 +2740,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -2665,7 +2753,7 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2674,10 +2762,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -2696,8 +2784,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2736,7 +2824,7 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2745,10 +2833,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -2758,7 +2846,7 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2767,10 +2855,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -2780,7 +2868,7 @@
     </row>
     <row r="4" ht="54" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2789,10 +2877,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -2802,7 +2890,7 @@
     </row>
     <row r="5" ht="54" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -2811,10 +2899,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2822,7 +2910,7 @@
     </row>
     <row r="6" ht="54" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2831,10 +2919,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -2842,7 +2930,7 @@
     </row>
     <row r="7" ht="54" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2851,10 +2939,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -2862,7 +2950,7 @@
     </row>
     <row r="8" ht="54" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -2871,10 +2959,10 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -2882,7 +2970,7 @@
     </row>
     <row r="9" ht="54" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2891,10 +2979,10 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -2902,7 +2990,7 @@
     </row>
     <row r="10" ht="54" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2911,10 +2999,10 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -2922,7 +3010,7 @@
     </row>
     <row r="11" ht="54" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -2931,10 +3019,10 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -2942,7 +3030,7 @@
     </row>
     <row r="12" ht="54" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -2951,10 +3039,10 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
@@ -2962,7 +3050,7 @@
     </row>
     <row r="13" ht="54" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -2971,10 +3059,10 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -3031,7 +3119,7 @@
     </row>
     <row r="2" ht="42" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3040,10 +3128,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -3053,7 +3141,7 @@
     </row>
     <row r="3" ht="27" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3062,10 +3150,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -3075,7 +3163,7 @@
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3084,10 +3172,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -3097,7 +3185,7 @@
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3106,10 +3194,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -3117,7 +3205,7 @@
     </row>
     <row r="6" ht="61" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3126,10 +3214,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -3137,7 +3225,7 @@
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -3146,10 +3234,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -3205,7 +3293,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3214,18 +3302,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3234,18 +3322,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3256,7 +3344,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3312,7 +3400,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3321,10 +3409,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -3334,7 +3422,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3343,10 +3431,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -3356,7 +3444,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3365,10 +3453,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -3427,7 +3515,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3436,18 +3524,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3456,18 +3544,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3478,7 +3566,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3534,7 +3622,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3543,20 +3631,20 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3565,20 +3653,20 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3587,13 +3675,13 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3649,7 +3737,7 @@
     </row>
     <row r="2" ht="68" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3658,10 +3746,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -3671,7 +3759,7 @@
     </row>
     <row r="3" ht="54" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3680,10 +3768,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -3693,7 +3781,7 @@
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3702,10 +3790,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -3715,7 +3803,7 @@
     </row>
     <row r="5" ht="54" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3724,10 +3812,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -3737,7 +3825,7 @@
     </row>
     <row r="6" ht="54" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3746,10 +3834,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -3759,7 +3847,7 @@
     </row>
     <row r="7" ht="54" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -3768,10 +3856,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -3781,19 +3869,19 @@
     </row>
     <row r="8" ht="54" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -3801,7 +3889,7 @@
     </row>
     <row r="9" ht="54" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -3810,10 +3898,10 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -3821,7 +3909,7 @@
     </row>
     <row r="10" ht="54" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3830,10 +3918,10 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -3841,7 +3929,7 @@
     </row>
     <row r="11" ht="54" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -3850,10 +3938,10 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -3861,7 +3949,7 @@
     </row>
     <row r="12" ht="54" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -3870,10 +3958,10 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
@@ -3881,7 +3969,7 @@
     </row>
     <row r="13" ht="54" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -3890,10 +3978,10 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -3911,15 +3999,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3948,9 +4037,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:8">
+    <row r="2" ht="69" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3959,20 +4048,20 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="86" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3981,37 +4070,37 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:8">
+    <row r="4" ht="78" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -4066,7 +4155,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -4075,18 +4164,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4095,18 +4184,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4117,7 +4206,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4133,7 +4222,7 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4173,7 +4262,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -4182,10 +4271,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -4195,7 +4284,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4204,10 +4293,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -4217,7 +4306,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4226,10 +4315,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -4239,7 +4328,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -4248,10 +4337,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -4261,7 +4350,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -4270,10 +4359,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -4283,7 +4372,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -4292,10 +4381,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -4305,7 +4394,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -4314,10 +4403,10 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -4325,7 +4414,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -4334,10 +4423,10 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -4345,7 +4434,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4354,10 +4443,10 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -4367,7 +4456,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -4376,10 +4465,10 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -4389,7 +4478,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -4398,10 +4487,10 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
@@ -4409,7 +4498,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -4418,10 +4507,10 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -4429,7 +4518,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -4438,10 +4527,10 @@
         <v>10000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
@@ -4451,7 +4540,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -4460,10 +4549,10 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
@@ -4471,7 +4560,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -4480,10 +4569,10 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
@@ -4491,7 +4580,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -4500,10 +4589,10 @@
         <v>10000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>12</v>
@@ -4511,7 +4600,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -4520,10 +4609,10 @@
         <v>10000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
@@ -4531,7 +4620,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -4540,10 +4629,10 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
@@ -4551,7 +4640,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -4560,10 +4649,10 @@
         <v>10000</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
@@ -4571,7 +4660,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -4580,10 +4669,10 @@
         <v>10000</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>12</v>
@@ -4591,7 +4680,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -4600,10 +4689,10 @@
         <v>10000</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
@@ -4611,7 +4700,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -4620,10 +4709,10 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
@@ -4631,7 +4720,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -4640,10 +4729,10 @@
         <v>10000</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
@@ -4651,7 +4740,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -4660,10 +4749,10 @@
         <v>10000</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
@@ -4671,7 +4760,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -4680,10 +4769,10 @@
         <v>10000</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
@@ -4691,7 +4780,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -4700,10 +4789,10 @@
         <v>10000</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
@@ -4711,7 +4800,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -4720,10 +4809,10 @@
         <v>10000</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
@@ -4731,7 +4820,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -4740,10 +4829,10 @@
         <v>10000</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
@@ -4751,7 +4840,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -4760,10 +4849,10 @@
         <v>10000</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
@@ -4771,7 +4860,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
@@ -4780,10 +4869,10 @@
         <v>10000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
@@ -4801,7 +4890,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4810,6 +4899,7 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="30.125" customWidth="1"/>
     <col min="5" max="5" width="48.875" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4838,9 +4928,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:8">
+    <row r="2" ht="72" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -4849,20 +4939,22 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="40.5" spans="1:8">
+    <row r="3" ht="61" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4871,20 +4963,22 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="40.5" spans="1:8">
+    <row r="4" ht="66" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4893,120 +4987,137 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="40.5" spans="1:6">
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:6">
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -5015,13 +5126,16 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5036,8 +5150,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5045,7 +5159,8 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="66.75" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5076,7 +5191,7 @@
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -5085,20 +5200,22 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="72" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5107,20 +5224,22 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="79" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -5129,20 +5248,22 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="67.5" spans="1:6">
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -5151,78 +5272,90 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:6">
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:6">
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -5231,18 +5364,21 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:6">
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -5251,18 +5387,21 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:6">
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -5271,18 +5410,21 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:6">
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -5291,18 +5433,21 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="67.5" spans="1:6">
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -5311,18 +5456,21 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" ht="67.5" spans="1:6">
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -5331,18 +5479,21 @@
         <v>10000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:6">
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -5351,18 +5502,21 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" ht="67.5" spans="1:6">
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -5371,13 +5525,16 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5431,7 +5588,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -5440,18 +5597,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5460,18 +5617,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -5482,7 +5639,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -5498,7 +5655,7 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
@@ -5539,7 +5696,7 @@
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -5548,10 +5705,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -5561,7 +5718,7 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5570,10 +5727,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -5583,7 +5740,7 @@
     </row>
     <row r="4" ht="93" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -5592,10 +5749,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -5605,7 +5762,7 @@
     </row>
     <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -5614,10 +5771,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -5627,7 +5784,7 @@
     </row>
     <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -5636,10 +5793,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -5649,7 +5806,7 @@
     </row>
     <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -5658,10 +5815,10 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -5671,19 +5828,19 @@
     </row>
     <row r="8" ht="67.5" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -5691,7 +5848,7 @@
     </row>
     <row r="9" ht="67.5" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -5700,10 +5857,10 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -5711,7 +5868,7 @@
     </row>
     <row r="10" ht="67.5" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -5720,10 +5877,10 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -5731,7 +5888,7 @@
     </row>
     <row r="11" ht="67.5" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -5740,10 +5897,10 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
@@ -5751,7 +5908,7 @@
     </row>
     <row r="12" ht="67.5" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -5760,10 +5917,10 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
@@ -5771,7 +5928,7 @@
     </row>
     <row r="13" ht="67.5" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -5780,10 +5937,10 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -5791,7 +5948,7 @@
     </row>
     <row r="14" ht="67.5" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -5800,10 +5957,10 @@
         <v>10000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
@@ -5811,7 +5968,7 @@
     </row>
     <row r="15" ht="67.5" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -5820,10 +5977,10 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
@@ -5831,7 +5988,7 @@
     </row>
     <row r="16" ht="67.5" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -5840,10 +5997,10 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
@@ -5851,7 +6008,7 @@
     </row>
     <row r="17" ht="67.5" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -5860,10 +6017,10 @@
         <v>10000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>12</v>
@@ -5871,7 +6028,7 @@
     </row>
     <row r="18" ht="67.5" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -5880,10 +6037,10 @@
         <v>10000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
@@ -5891,7 +6048,7 @@
     </row>
     <row r="19" ht="67.5" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -5900,10 +6057,10 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
@@ -5959,7 +6116,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -5968,18 +6125,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5988,18 +6145,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -6010,7 +6167,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6065,7 +6222,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -6074,18 +6231,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6094,18 +6251,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -6116,7 +6273,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6171,7 +6328,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -6180,18 +6337,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6200,18 +6357,18 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -6222,7 +6379,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>

--- a/API-Auto/testFile/case/业务员APP.xlsx
+++ b/API-Auto/testFile/case/业务员APP.xlsx
@@ -4,37 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="1app登录" sheetId="1" r:id="rId1"/>
     <sheet name="2app登出 " sheetId="2" r:id="rId2"/>
     <sheet name="3修改密码" sheetId="3" r:id="rId3"/>
     <sheet name="4查询客户" sheetId="4" r:id="rId4"/>
-    <sheet name="查询商品组" sheetId="5" r:id="rId5"/>
-    <sheet name="查询商品列表" sheetId="6" r:id="rId6"/>
-    <sheet name="商品详情" sheetId="7" r:id="rId7"/>
-    <sheet name="商品说明书" sheetId="8" r:id="rId8"/>
-    <sheet name="客户购物车列表" sheetId="9" r:id="rId9"/>
-    <sheet name="添加购物车" sheetId="10" r:id="rId10"/>
-    <sheet name="更新购物车数量" sheetId="11" r:id="rId11"/>
-    <sheet name="删除购物车" sheetId="12" r:id="rId12"/>
-    <sheet name="商品关键字搜索" sheetId="13" r:id="rId13"/>
-    <sheet name="商品搜索下拉提示" sheetId="14" r:id="rId14"/>
-    <sheet name="业务员购物车" sheetId="15" r:id="rId15"/>
-    <sheet name="结算" sheetId="16" r:id="rId16"/>
-    <sheet name="查询当前业务员可以查询的业务员组" sheetId="17" r:id="rId17"/>
-    <sheet name="根据业务员组查询可见的业务员" sheetId="18" r:id="rId18"/>
-    <sheet name="提交订单" sheetId="19" r:id="rId19"/>
-    <sheet name="订单详情" sheetId="20" r:id="rId20"/>
-    <sheet name="条件查询订单" sheetId="21" r:id="rId21"/>
+    <sheet name="5查询商品组" sheetId="5" r:id="rId5"/>
+    <sheet name="6查询商品列表" sheetId="6" r:id="rId6"/>
+    <sheet name="7商品详情" sheetId="7" r:id="rId7"/>
+    <sheet name="8商品说明书" sheetId="8" r:id="rId8"/>
+    <sheet name="9客户购物车列表" sheetId="9" r:id="rId9"/>
+    <sheet name="10添加购物车" sheetId="10" r:id="rId10"/>
+    <sheet name="11更新购物车数量" sheetId="11" r:id="rId11"/>
+    <sheet name="12删除购物车" sheetId="12" r:id="rId12"/>
+    <sheet name="13商品关键字搜索" sheetId="13" r:id="rId13"/>
+    <sheet name="14商品搜索下拉提示" sheetId="14" r:id="rId14"/>
+    <sheet name="15业务员购物车" sheetId="15" r:id="rId15"/>
+    <sheet name="16结算" sheetId="16" r:id="rId16"/>
+    <sheet name="17查询当前业务员可以查询的业务员组" sheetId="17" r:id="rId17"/>
+    <sheet name="18根据业务员组查询可见的业务员" sheetId="18" r:id="rId18"/>
+    <sheet name="19提交订单" sheetId="19" r:id="rId19"/>
+    <sheet name="20订单详情" sheetId="20" r:id="rId20"/>
+    <sheet name="21条件查询订单" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="316">
   <si>
     <t>case_name</t>
   </si>
@@ -396,88 +396,153 @@
     <t>/goods/goodsGroup111</t>
   </si>
   <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/goods/goodsGroup1111"
+}</t>
+  </si>
+  <si>
     <t>url为空</t>
   </si>
   <si>
+    <t>goodsGroupIds为1个</t>
+  </si>
+  <si>
     <t>/goods/goodsList</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":xxx,
- "pageNumber":1,
- "pageSize":1,
+    <t>{
+    "code": "000000",
+    "content": {
+        "list": []},
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>goodsGroupIds为2个</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[1,2],
+ "pageNumber":"1",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":,
- "pageNumber":1,
- "pageSize":1,
+    <t>goodsGroupIds为多个</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[1,2,3,4,5],
+ "pageNumber":"1",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
-    <t>pageNumber正确</t>
-  </si>
-  <si>
-    <t>pageNumber错误</t>
-  </si>
-  <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":xxxx,
- "pageSize":1,
+    <t>goodsGroupIds为错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[123456],
+ "pageNumber":"1",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
-    <t>pageNumber为空</t>
-  </si>
-  <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":,
- "pageSize":1,
+    <t>goodsGroupIds为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[],
+ "pageNumber":"1",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
-    <t>pageSize正确</t>
-  </si>
-  <si>
-    <t>pageSize错误</t>
-  </si>
-  <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":xxx,
+    <t>{
+    "code": "900000",
+    "content": null,
+    "message": "系统异常"
+}</t>
+  </si>
+  <si>
+    <t>pageNumber正确</t>
+  </si>
+  <si>
+    <t>pageNumber错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"xxxx",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
-    <t>pageSize为空</t>
-  </si>
-  <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":,
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error: "
+}</t>
+  </si>
+  <si>
+    <t>pageNumber为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"",
+ "pageSize":"1",
  "sortFieldCode":0,
  "sortOrderCode":0}</t>
   </si>
   <si>
+    <t>pageSize正确</t>
+  </si>
+  <si>
+    <t>pageSize错误</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"xxxx",
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
+    <t>pageSize为空</t>
+  </si>
+  <si>
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"",
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
     <t>sortFieldCode为默认排序</t>
   </si>
   <si>
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
+ "sortFieldCode":0,
+ "sortOrderCode":0}</t>
+  </si>
+  <si>
     <t>sortFieldCode为销量</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
  "sortFieldCode":1,
  "sortOrderCode":0}</t>
   </si>
@@ -485,9 +550,9 @@
     <t>sortFieldCode为价格</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
  "sortFieldCode":2,
  "sortOrderCode":0}</t>
   </si>
@@ -495,32 +560,33 @@
     <t>sortFieldCode错误</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
- "sortFieldCode":xxx,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
+ "sortFieldCode":3,
  "sortOrderCode":0}</t>
   </si>
   <si>
+    <t>{
+    "code": "900006",
+    "content": {
+        "list": []},
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
     <t>sortFieldCode为空</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
- "sortFieldCode":,
- "sortOrderCode":0}</t>
-  </si>
-  <si>
     <t>sortOrderCode为倒序</t>
   </si>
   <si>
     <t>sortOrderCode为升序</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
  "sortFieldCode":1,
  "sortOrderCode":1}</t>
   </si>
@@ -528,45 +594,86 @@
     <t>sortOrderCode错误</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
  "sortFieldCode":1,
- "sortOrderCode":xxxx}</t>
+ "sortOrderCode":2}</t>
   </si>
   <si>
     <t>sortOrderCode为空</t>
   </si>
   <si>
-    <t>{"goodsGroupIds":1,
- "pageNumber":1,
- "pageSize":1,
+    <t>{"goodsGroupIds":[1],
+ "pageNumber":"1",
+ "pageSize":"10",
  "sortFieldCode":1,
- "sortOrderCode":}</t>
-  </si>
-  <si>
-    <t>/goods/detail/{id}</t>
-  </si>
-  <si>
-    <t>/goods/detail/{id}1111</t>
-  </si>
-  <si>
-    <t>/goods/instruction/{id}</t>
-  </si>
-  <si>
-    <t>/goods/instruction/{id}1111</t>
-  </si>
-  <si>
-    <t>/cart/clientList</t>
-  </si>
-  <si>
-    <t>/cart/clientList1111</t>
+ "sortOrderCode":""}</t>
+  </si>
+  <si>
+    <t>/goods/detail/10</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": {},
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>/goods/detail/1000000</t>
+  </si>
+  <si>
+    <t>/goods/instruction/10</t>
+  </si>
+  <si>
+    <t>/goods/instruction/100000</t>
+  </si>
+  <si>
+    <t>/cart/clientList/10</t>
+  </si>
+  <si>
+    <t>/cart/clientList/100000</t>
+  </si>
+  <si>
+    <t>client_id正确</t>
+  </si>
+  <si>
+    <t>/cart/add</t>
+  </si>
+  <si>
+    <t>{"client_id":"3",
+ "goodsId":"1",
+ "quantity":"1",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>client_id错误</t>
+  </si>
+  <si>
+    <t>{"client_id":"xxx",
+ "goodsId":"1",
+ "quantity":"1",
+ "addPrice":"1"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "200903",
+    "content": null,
+    "message": "请先选择客户"
+}</t>
+  </si>
+  <si>
+    <t>client_id为空</t>
+  </si>
+  <si>
+    <t>{"client_id":"",
+ "goodsId":"1",
+ "quantity":"1",
+ "addPrice":"1"}</t>
   </si>
   <si>
     <t>goodsId正确</t>
-  </si>
-  <si>
-    <t>/cart/add</t>
   </si>
   <si>
     <t>{"goodsId":"1",
@@ -631,25 +738,72 @@
     <t>/cart/update</t>
   </si>
   <si>
-    <t>ids正确</t>
+    <t>{"goodsId":"1",
+ "quantity":"1",
+ "client_id":"1"}</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"1",
+ "client_id":"xxx"}</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"1",
+ "client_id":""}</t>
+  </si>
+  <si>
+    <t>{"goodsId":"xxx",
+ "quantity":"1",
+ "client_id":"1"}</t>
+  </si>
+  <si>
+    <t>{"goodsId":"",
+ "quantity":"1",
+ "client_id":"1"}</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"xxx",
+ "client_id":"1"}</t>
+  </si>
+  <si>
+    <t>{"goodsId":"1",
+ "quantity":"",
+ "client_id":"1"}</t>
+  </si>
+  <si>
+    <t>ids为1个</t>
   </si>
   <si>
     <t>/cart/delete</t>
   </si>
   <si>
-    <t>{"ids":"1"}</t>
+    <t>{"ids":[1]}</t>
+  </si>
+  <si>
+    <t>ids为2个</t>
+  </si>
+  <si>
+    <t>{"ids":[1,2]}</t>
+  </si>
+  <si>
+    <t>ids为多个</t>
+  </si>
+  <si>
+    <t>{"ids":[1,2,3,4,5]}</t>
   </si>
   <si>
     <t>ids错误</t>
   </si>
   <si>
-    <t>{"ids":"xxxx"}</t>
+    <t>{"ids":[xxxx]}</t>
   </si>
   <si>
     <t>ids为空</t>
   </si>
   <si>
-    <t>{"ids":""}</t>
+    <t>{"ids":[]}</t>
   </si>
   <si>
     <t>keywords正确</t>
@@ -661,7 +815,7 @@
     <t>{"keywords":"1",
  "pageNumber":"1",
  "pageSize":"1",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>keywords错误</t>
@@ -670,7 +824,7 @@
     <t>{"keywords":"xxx",
  "pageNumber":"1",
  "pageSize":"1",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>keywords为空</t>
@@ -679,75 +833,96 @@
     <t>{"keywords":"",
  "pageNumber":"1",
  "pageSize":"1",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
  "pageNumber":"xxx",
  "pageSize":"1",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error:"
+}</t>
   </si>
   <si>
     <t>{"keywords":"1",
  "pageNumber":"",
  "pageSize":"1",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
  "pageNumber":"1",
  "pageSize":"xxx",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
  "pageNumber":"1",
  "pageSize":"",
- "goodsGroupIds":"1"}</t>
-  </si>
-  <si>
-    <t>goodsGroupIds正确</t>
-  </si>
-  <si>
-    <t>goodsGroupIds错误</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
  "pageNumber":"1",
  "pageSize":"1",
- "goodsGroupIds":"xxx"}</t>
-  </si>
-  <si>
-    <t>goodsGroupIds为空</t>
+ "goodsGroupIds":[1,2]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
  "pageNumber":"1",
  "pageSize":"1",
- "goodsGroupIds":""}</t>
+ "goodsGroupIds":[1,2,3,4,5]}</t>
+  </si>
+  <si>
+    <t>goodsGroupIds错误</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":[12345678]}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "pageNumber":"1",
+ "pageSize":"1",
+ "goodsGroupIds":[]}</t>
   </si>
   <si>
     <t>/goods/search/suggest</t>
   </si>
   <si>
     <t>{"keywords":"1",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"xxx",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"",
- "goodsGroupIds":"1"}</t>
+ "goodsGroupIds":[1]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
- "goodsGroupIds":"xxx"}</t>
+ "goodsGroupIds":[1,2]}</t>
   </si>
   <si>
     <t>{"keywords":"1",
- "goodsGroupIds":""}</t>
+ "goodsGroupIds":[1,2,3,4,5]}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "goodsGroupIds":[12345678]}</t>
+  </si>
+  <si>
+    <t>{"keywords":"1",
+ "goodsGroupIds":[]}</t>
   </si>
   <si>
     <t>/cart/salesmanList</t>
@@ -756,22 +931,34 @@
     <t>/cart/salesmanList1111</t>
   </si>
   <si>
-    <t>_root_正确</t>
+    <t>root为1个</t>
   </si>
   <si>
     <t>/settlement/settle</t>
   </si>
   <si>
-    <t>{"_root_":"1"}</t>
-  </si>
-  <si>
-    <t>_root_错误</t>
+    <t>{"_root_":[1]}</t>
+  </si>
+  <si>
+    <t>root为2个</t>
+  </si>
+  <si>
+    <t>{"_root_":[1,2]}</t>
+  </si>
+  <si>
+    <t>root为多个</t>
+  </si>
+  <si>
+    <t>{"_root_":[1,2,3,4,5]}</t>
+  </si>
+  <si>
+    <t>root错误</t>
   </si>
   <si>
     <t>{"_root_":"xxx"}</t>
   </si>
   <si>
-    <t>_root_为空</t>
+    <t>root为空</t>
   </si>
   <si>
     <t>{"_root_":""}</t>
@@ -783,6 +970,13 @@
     <t>/order/findSManGroup1111</t>
   </si>
   <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/order/findSManGroup111"
+}</t>
+  </si>
+  <si>
     <t>/order/findSMan/</t>
   </si>
   <si>
@@ -802,7 +996,7 @@
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"1",
  "settleType":1}</t>
   </si>
@@ -811,7 +1005,7 @@
   </si>
   <si>
     <t>{"userId":xxx,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"1",
  "settleType":1}</t>
   </si>
@@ -820,32 +1014,50 @@
   </si>
   <si>
     <t>{"userId":,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"1",
  "settleType":1}</t>
   </si>
   <si>
-    <t>goodsIds正确</t>
-  </si>
-  <si>
-    <t>goodsIds错误</t>
+    <t>goodsIds为1个</t>
+  </si>
+  <si>
+    <t>goodsIds为2个</t>
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":xxx,
+ "goodsIds":[1,2],
  "remarks":"1",
  "settleType":1}</t>
   </si>
   <si>
-    <t>goodsIds为空</t>
+    <t>goodsIds为多个</t>
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":,
+ "goodsIds":[1,2,3,4,5],
  "remarks":"1",
  "settleType":1}</t>
   </si>
   <si>
+    <t>goodsIds错误</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":[12345678],
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
+    <t>goodsIds为空</t>
+  </si>
+  <si>
+    <t>{"userId":1,
+ "goodsIds":[],
+ "remarks":"1",
+ "settleType":1}</t>
+  </si>
+  <si>
     <t>remarks正确</t>
   </si>
   <si>
@@ -853,7 +1065,7 @@
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"xxx",
  "settleType":1}</t>
   </si>
@@ -862,7 +1074,7 @@
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"",
  "settleType":1}</t>
   </si>
@@ -874,7 +1086,7 @@
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"1",
  "settleType":xxx}</t>
   </si>
@@ -883,15 +1095,15 @@
   </si>
   <si>
     <t>{"userId":1,
- "goodsIds":1,
+ "goodsIds":[1],
  "remarks":"1",
  "settleType":}</t>
   </si>
   <si>
-    <t>/order/detail/{number}</t>
-  </si>
-  <si>
-    <t>/order/detail/{number}111</t>
+    <t>/order/detail/1</t>
+  </si>
+  <si>
+    <t>/order/detail/12345678</t>
   </si>
   <si>
     <t>orderStatus为待开票</t>
@@ -900,49 +1112,61 @@
     <t>/order/find</t>
   </si>
   <si>
-    <t>{"orderStatus":"0"}</t>
+    <t>{"orderStatus":[0]}</t>
   </si>
   <si>
     <t>orderStatus为已开票</t>
   </si>
   <si>
-    <t>{"orderStatus":"1"}</t>
+    <t>{"orderStatus":[1]}</t>
   </si>
   <si>
     <t>orderStatus为已拣货</t>
   </si>
   <si>
-    <t>{"orderStatus":"2"}</t>
+    <t>{"orderStatus":[2]}</t>
   </si>
   <si>
     <t>orderStatus为已出库</t>
   </si>
   <si>
-    <t>{"orderStatus":"3"}</t>
+    <t>{"orderStatus":[3]}</t>
   </si>
   <si>
     <t>orderStatus为已发货</t>
   </si>
   <si>
-    <t>{"orderStatus":"4"}</t>
+    <t>{"orderStatus":[4]}</t>
   </si>
   <si>
     <t>orderStatus为已完成</t>
   </si>
   <si>
-    <t>{"orderStatus":"5"}</t>
+    <t>{"orderStatus":[5]}</t>
+  </si>
+  <si>
+    <t>orderStatus为2个</t>
+  </si>
+  <si>
+    <t>{"orderStatus":[1,2]}</t>
+  </si>
+  <si>
+    <t>orderStatus为多个</t>
+  </si>
+  <si>
+    <t>{"orderStatus":[1,2,3,4,5]}</t>
   </si>
   <si>
     <t>orderStatus为错误</t>
   </si>
   <si>
-    <t>{"orderStatus":"10"}</t>
+    <t>{"orderStatus":[10]}</t>
   </si>
   <si>
     <t>orderStatus为空</t>
   </si>
   <si>
-    <t>{"orderStatus":""}</t>
+    <t>{"orderStatus":[]}</t>
   </si>
   <si>
     <t>payStatus为未支付</t>
@@ -1076,9 +1300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1087,75 +1311,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1175,8 +1330,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1190,8 +1389,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,14 +1437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,7 +1445,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,19 +1467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,6 +1491,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1285,109 +1539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,13 +1599,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,11 +1661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,17 +1691,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,21 +1750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1542,10 +1766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1554,137 +1778,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,6 +1921,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2052,7 +2282,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -2205,7 +2435,7 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2228,7 +2458,7 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2242,10 +2472,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2253,7 +2483,8 @@
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2282,200 +2513,290 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="51" customHeight="1" spans="1:8">
+    <row r="2" ht="57" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="40.5" spans="1:8">
+    <row r="3" ht="75" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="55" customHeight="1" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="52" customHeight="1" spans="1:8">
+    <row r="5" ht="51" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="40.5" spans="1:8">
+    <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="40.5" spans="1:8">
+    <row r="7" ht="55" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" ht="40.5" spans="1:7">
+    <row r="8" ht="52" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:7">
+      <c r="G8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="67.5" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="67.5" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2486,18 +2807,19 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="27.625" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2526,137 +2848,221 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="57" customHeight="1" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="58" customHeight="1" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="40.5" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:8">
+    <row r="5" ht="57" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="40.5" spans="1:8">
+    <row r="6" ht="58" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:8">
+    <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="54" customHeight="1" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="67.5" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="51" customHeight="1" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2667,18 +3073,19 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2707,71 +3114,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:8">
+    <row r="2" ht="71" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="75" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+    <row r="4" ht="75" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="79" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2782,18 +3243,19 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2824,248 +3286,327 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
         <v>10000</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" ht="54" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
         <v>10000</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" ht="54" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="54" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="54" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
+      <c r="D15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3077,18 +3618,19 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3119,128 +3661,192 @@
     </row>
     <row r="2" ht="42" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="27" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="58" customHeight="1" spans="1:8">
+    <row r="4" ht="83" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="27" spans="1:6">
+    <row r="5" ht="80" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="61" customHeight="1" spans="1:6">
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="70" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="27" spans="1:6">
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="73" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="93" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3861,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -3263,6 +3869,9 @@
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3291,7 +3900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -3302,16 +3911,18 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -3322,18 +3933,20 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3346,7 +3959,9 @@
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -3358,18 +3973,19 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3398,71 +4014,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="67.5" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3476,7 +4146,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -3485,6 +4155,7 @@
     <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3513,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -3521,19 +4192,21 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -3541,34 +4214,38 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -3583,15 +4260,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3620,9 +4298,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3631,20 +4309,22 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3653,20 +4333,22 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3675,15 +4357,17 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -3695,10 +4379,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3707,6 +4391,7 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3737,7 +4422,7 @@
     </row>
     <row r="2" ht="68" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3746,20 +4431,22 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="54" spans="1:8">
+    <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3768,20 +4455,22 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3790,20 +4479,22 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="54" spans="1:8">
+    <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3812,20 +4503,22 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="54" spans="1:8">
+    <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3834,20 +4527,22 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="54" spans="1:8">
+    <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -3856,20 +4551,22 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" ht="54" spans="1:6">
+    <row r="8" ht="81" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -3878,18 +4575,22 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="54" spans="1:6">
+      <c r="G8" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="67.5" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -3898,18 +4599,22 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="54" spans="1:6">
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3918,18 +4623,21 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="54" spans="1:6">
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -3938,18 +4646,21 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="54" spans="1:6">
+      <c r="G11" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -3958,18 +4669,21 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="54" spans="1:6">
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -3978,13 +4692,62 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +4762,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -4045,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -4067,7 +4830,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -4089,7 +4852,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>34</v>
@@ -4116,15 +4879,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4153,7 +4917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -4161,19 +4925,21 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -4181,34 +4947,38 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -4220,18 +4990,19 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4260,622 +5031,751 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="67.5" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="64" customHeight="1" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="67.5" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" ht="67.5" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" ht="67.5" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" ht="67.5" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" ht="67.5" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" ht="67.5" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" ht="67.5" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" ht="67.5" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" ht="67.5" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" ht="67.5" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" ht="67.5" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" ht="67.5" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4889,8 +5789,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4936,7 +5836,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -4960,7 +5860,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -4984,7 +5884,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -5008,7 +5908,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -5031,7 +5931,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -5054,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -5077,7 +5977,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -5100,7 +6000,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
@@ -5123,7 +6023,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -5150,8 +6050,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5197,7 +6097,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -5221,7 +6121,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
@@ -5245,7 +6145,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>55</v>
@@ -5269,7 +6169,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>55</v>
@@ -5292,7 +6192,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>55</v>
@@ -5315,7 +6215,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>55</v>
@@ -5338,7 +6238,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>55</v>
@@ -5361,7 +6261,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>55</v>
@@ -5384,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>55</v>
@@ -5407,7 +6307,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>55</v>
@@ -5430,7 +6330,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
@@ -5453,7 +6353,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
@@ -5476,7 +6376,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>55</v>
@@ -5499,7 +6399,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
@@ -5522,7 +6422,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>55</v>
@@ -5549,7 +6449,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -5557,7 +6457,9 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5586,7 +6488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -5594,7 +6496,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
@@ -5603,10 +6505,12 @@
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -5614,7 +6518,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -5623,25 +6527,29 @@
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -5653,19 +6561,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="51.625" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5694,376 +6602,472 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:8">
+    <row r="2" ht="84" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="80" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="80" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="81" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="83" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="81" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="67.5" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="81" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="81" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" ht="81" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" ht="81" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="81" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="81" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" ht="81" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
         <v>10000</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" ht="93" customHeight="1" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" ht="67.5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" ht="67.5" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" ht="67.5" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" ht="67.5" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="67.5" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="67.5" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="67.5" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="67.5" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="67.5" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="67.5" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
+      <c r="E21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6078,7 +7082,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6086,6 +7090,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="7" max="7" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6114,7 +7119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -6122,19 +7127,21 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="70" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -6142,34 +7149,38 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -6184,7 +7195,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6192,6 +7203,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6220,7 +7232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -6228,19 +7240,21 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -6248,34 +7262,38 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -6290,7 +7308,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -6298,6 +7316,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6326,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -6334,19 +7353,21 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -6354,34 +7375,38 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
   </sheetData>

--- a/API-Auto/testFile/case/业务员APP.xlsx
+++ b/API-Auto/testFile/case/业务员APP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="15" activeTab="20"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1app登录" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="315">
   <si>
     <t>case_name</t>
   </si>
@@ -138,7 +138,10 @@
     <t>id正确</t>
   </si>
   <si>
-    <t>/SalesmanLogout/logout/593b6a75-aee6-11ea-8ad6-0a0027000008</t>
+    <t>/SalesmanLogout/logout/</t>
+  </si>
+  <si>
+    <t>salesmanToken</t>
   </si>
   <si>
     <t>delete</t>
@@ -154,9 +157,6 @@
     <t>id错误</t>
   </si>
   <si>
-    <t>/SalesmanLogout/logout/111</t>
-  </si>
-  <si>
     <t>{
     "code": "900004",
     "content": null,
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>id为空</t>
-  </si>
-  <si>
-    <t>/SalesmanLogout/logout/</t>
   </si>
   <si>
     <t>{
@@ -1301,8 +1298,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1311,6 +1308,120 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1331,90 +1442,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1423,36 +1450,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1467,7 +1464,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,13 +1536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,13 +1554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,7 +1572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,25 +1590,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,97 +1638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,6 +1655,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1672,6 +1684,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,7 +1716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,30 +1731,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1766,10 +1763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1778,133 +1775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1928,8 +1925,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2435,7 +2432,7 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2458,7 +2455,7 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2515,151 +2512,151 @@
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="51" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="55" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="52" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -2668,70 +2665,70 @@
         <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="67.5" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="67.5" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -2740,62 +2737,62 @@
         <v>10110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2847,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2859,22 +2856,22 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -2883,22 +2880,22 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2907,22 +2904,22 @@
         <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -2931,22 +2928,22 @@
         <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="58" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2955,22 +2952,22 @@
         <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2979,22 +2976,22 @@
         <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -3003,22 +3000,22 @@
         <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="67.5" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -3027,22 +3024,22 @@
         <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3051,16 +3048,16 @@
         <v>10110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -3116,121 +3113,121 @@
     </row>
     <row r="2" ht="71" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="79" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -3286,79 +3283,79 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3367,21 +3364,21 @@
         <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3390,21 +3387,21 @@
         <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -3413,21 +3410,21 @@
         <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -3436,21 +3433,21 @@
         <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -3459,21 +3456,21 @@
         <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3482,21 +3479,21 @@
         <v>10110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -3505,21 +3502,21 @@
         <v>10110</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -3528,21 +3525,21 @@
         <v>10110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -3551,21 +3548,21 @@
         <v>10110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -3574,21 +3571,21 @@
         <v>10000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -3597,16 +3594,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3658,7 @@
     </row>
     <row r="2" ht="42" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3670,22 +3667,22 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3694,22 +3691,22 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="83" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3718,22 +3715,22 @@
         <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="80" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3742,22 +3739,22 @@
         <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3766,22 +3763,22 @@
         <v>10110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -3790,22 +3787,22 @@
         <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="93" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -3814,21 +3811,21 @@
         <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -3837,16 +3834,16 @@
         <v>10110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3911,20 +3908,20 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3933,20 +3930,20 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3957,10 +3954,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -4016,121 +4013,121 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -4186,7 +4183,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -4195,20 +4192,20 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4217,20 +4214,20 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4241,10 +4238,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -4309,22 +4306,22 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4333,16 +4330,16 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -4357,16 +4354,16 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="2" ht="68" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -4431,22 +4428,22 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4455,22 +4452,22 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4479,22 +4476,22 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -4503,22 +4500,22 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -4527,22 +4524,22 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -4551,22 +4548,22 @@
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="81" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -4575,22 +4572,22 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="67.5" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -4599,22 +4596,22 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4623,21 +4620,21 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="81" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -4646,21 +4643,21 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -4669,21 +4666,21 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -4692,21 +4689,21 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="81" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -4715,21 +4712,21 @@
         <v>10000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -4738,16 +4735,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4761,16 +4758,16 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
     <col min="7" max="7" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4813,18 +4810,20 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4833,11 +4832,13 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>111</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>32</v>
@@ -4855,14 +4856,14 @@
         <v>10110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -4919,7 +4920,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -4928,20 +4929,20 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4950,20 +4951,20 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4974,10 +4975,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -4992,7 +4993,7 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -5033,593 +5034,593 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="67.5" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="67.5" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="67.5" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="64" customHeight="1" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" ht="67.5" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" ht="67.5" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
       <c r="A22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" ht="67.5" spans="1:7">
       <c r="A23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:7">
       <c r="A24" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
       <c r="A25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
       <c r="A26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="67.5" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -5628,67 +5629,67 @@
         <v>10110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="1:7">
       <c r="A28" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:7">
       <c r="A29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -5697,85 +5698,85 @@
         <v>10110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:7">
       <c r="A31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" ht="67.5" spans="1:7">
       <c r="A32" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" ht="67.5" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5830,79 +5831,79 @@
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="61" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="66" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -5911,67 +5912,67 @@
         <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -5980,62 +5981,62 @@
         <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6091,79 +6092,79 @@
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="72" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="79" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -6172,67 +6173,67 @@
         <v>10110</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -6241,67 +6242,67 @@
         <v>10110</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -6310,67 +6311,67 @@
         <v>10110</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -6379,62 +6380,62 @@
         <v>10110</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:7">
       <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6490,51 +6491,51 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="81" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -6545,10 +6546,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -6604,127 +6605,127 @@
     </row>
     <row r="2" ht="84" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="80" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="81" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="83" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="81" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -6733,70 +6734,70 @@
         <v>10110</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="67.5" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="81" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="81" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -6805,159 +6806,159 @@
         <v>10110</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="81" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:7">
       <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" ht="81" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -6966,21 +6967,21 @@
         <v>10110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" ht="81" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -6989,44 +6990,44 @@
         <v>10110</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10110</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" ht="81" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -7035,21 +7036,21 @@
         <v>10000</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="81" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -7058,16 +7059,16 @@
         <v>10000</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7121,7 +7122,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -7130,20 +7131,20 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="70" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7152,20 +7153,20 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7176,10 +7177,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -7234,7 +7235,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -7243,20 +7244,20 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7265,20 +7266,20 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7289,10 +7290,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -7347,7 +7348,7 @@
     </row>
     <row r="2" ht="67.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -7356,20 +7357,20 @@
         <v>10110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" ht="67.5" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7378,20 +7379,20 @@
         <v>10110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="67.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7402,10 +7403,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2"/>
     </row>
